--- a/assets/excel/2021_4-4-1.xlsx
+++ b/assets/excel/2021_4-4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E2328-C005-4240-B198-B8232B4C8FFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9EAB70-6FCF-4B2C-B482-0284D349E4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{0F19F7A8-EB0C-47DC-83FF-C18142F79EEF}"/>
   </bookViews>
@@ -538,13 +538,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,9 +587,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,22 +599,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,8 +926,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:W73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,6 +935,7 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,16 +957,16 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -977,153 +978,153 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+    </row>
+    <row r="7" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="45" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="48" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="10" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53">
+      <c r="B11" s="33">
         <v>1</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="34">
         <v>3</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="35">
         <v>5</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="35">
         <v>6</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="35">
         <v>7</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="35">
         <v>8</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="35">
         <v>9</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="35">
         <v>10</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="35">
         <v>11</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="35">
         <v>12</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="35">
         <v>13</v>
       </c>
     </row>
@@ -2535,7 +2536,7 @@
       <c r="G45" s="20">
         <v>396</v>
       </c>
-      <c r="I45" s="7">
+      <c r="H45" s="7">
         <v>183</v>
       </c>
       <c r="J45" s="7"/>
@@ -2567,7 +2568,7 @@
       <c r="G46" s="20">
         <v>441</v>
       </c>
-      <c r="I46" s="7">
+      <c r="H46" s="7">
         <v>225</v>
       </c>
       <c r="J46" s="7"/>
@@ -2599,7 +2600,7 @@
       <c r="G47" s="21">
         <v>837</v>
       </c>
-      <c r="I47" s="10">
+      <c r="H47" s="10">
         <v>408</v>
       </c>
       <c r="J47" s="10"/>
@@ -2631,7 +2632,7 @@
       <c r="G48" s="22">
         <v>600</v>
       </c>
-      <c r="I48" s="7">
+      <c r="H48" s="7">
         <v>221</v>
       </c>
       <c r="J48" s="7"/>
@@ -2663,7 +2664,7 @@
       <c r="G49" s="22">
         <v>851</v>
       </c>
-      <c r="I49" s="7">
+      <c r="H49" s="7">
         <v>279</v>
       </c>
       <c r="J49" s="7"/>
@@ -2695,7 +2696,7 @@
       <c r="G50" s="23">
         <v>1451</v>
       </c>
-      <c r="I50" s="10">
+      <c r="H50" s="10">
         <v>500</v>
       </c>
       <c r="J50" s="10"/>
@@ -2727,7 +2728,7 @@
       <c r="G51" s="22">
         <v>392</v>
       </c>
-      <c r="I51" s="7">
+      <c r="H51" s="7">
         <v>199</v>
       </c>
       <c r="J51" s="7"/>
@@ -2759,7 +2760,7 @@
       <c r="G52" s="22">
         <v>369</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="7"/>
@@ -2791,7 +2792,7 @@
       <c r="G53" s="23">
         <v>761</v>
       </c>
-      <c r="I53" s="10">
+      <c r="H53" s="10">
         <v>199</v>
       </c>
       <c r="J53" s="10"/>
@@ -2812,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E54" s="24">
         <v>261</v>
@@ -2844,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E55" s="24">
         <v>402</v>
@@ -2876,7 +2877,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E56" s="25">
         <v>663</v>
@@ -3175,6 +3176,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B6:N6"/>
@@ -3191,7 +3193,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B73" r:id="rId1" xr:uid="{3ADF4A85-3A7E-422B-BEA1-45B48965058B}"/>
